--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65975505298866</v>
+        <v>21.395034</v>
       </c>
       <c r="H2">
-        <v>3.65975505298866</v>
+        <v>64.185102</v>
       </c>
       <c r="I2">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="J2">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.02706955833192</v>
+        <v>7.321725333333333</v>
       </c>
       <c r="N2">
-        <v>6.02706955833192</v>
+        <v>21.965176</v>
       </c>
       <c r="O2">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168947</v>
       </c>
       <c r="P2">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168946</v>
       </c>
       <c r="Q2">
-        <v>22.05759827081938</v>
+        <v>156.648562445328</v>
       </c>
       <c r="R2">
-        <v>22.05759827081938</v>
+        <v>1409.837062007952</v>
       </c>
       <c r="S2">
-        <v>0.001094171516605259</v>
+        <v>0.007118150402439924</v>
       </c>
       <c r="T2">
-        <v>0.001094171516605259</v>
+        <v>0.007118150402439924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65975505298866</v>
+        <v>21.395034</v>
       </c>
       <c r="H3">
-        <v>3.65975505298866</v>
+        <v>64.185102</v>
       </c>
       <c r="I3">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="J3">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7800655642474</v>
+        <v>14.81128766666667</v>
       </c>
       <c r="N3">
-        <v>14.7800655642474</v>
+        <v>44.433863</v>
       </c>
       <c r="O3">
-        <v>0.4868557492550741</v>
+        <v>0.4624794897301531</v>
       </c>
       <c r="P3">
-        <v>0.4868557492550741</v>
+        <v>0.462479489730153</v>
       </c>
       <c r="Q3">
-        <v>54.09141963225812</v>
+        <v>316.888003212114</v>
       </c>
       <c r="R3">
-        <v>54.09141963225812</v>
+        <v>2851.992028909026</v>
       </c>
       <c r="S3">
-        <v>0.002683215549022725</v>
+        <v>0.01439947122642725</v>
       </c>
       <c r="T3">
-        <v>0.002683215549022725</v>
+        <v>0.01439947122642725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65975505298866</v>
+        <v>21.395034</v>
       </c>
       <c r="H4">
-        <v>3.65975505298866</v>
+        <v>64.185102</v>
       </c>
       <c r="I4">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="J4">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38738123264182</v>
+        <v>2.522212</v>
       </c>
       <c r="N4">
-        <v>2.38738123264182</v>
+        <v>7.566636</v>
       </c>
       <c r="O4">
-        <v>0.07864040072913712</v>
+        <v>0.078755564337357</v>
       </c>
       <c r="P4">
-        <v>0.07864040072913712</v>
+        <v>0.07875556433735698</v>
       </c>
       <c r="Q4">
-        <v>8.737230529571196</v>
+        <v>53.962811495208</v>
       </c>
       <c r="R4">
-        <v>8.737230529571196</v>
+        <v>485.665303456872</v>
       </c>
       <c r="S4">
-        <v>0.0004334120452324094</v>
+        <v>0.002452083838914672</v>
       </c>
       <c r="T4">
-        <v>0.0004334120452324094</v>
+        <v>0.002452083838914672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65975505298866</v>
+        <v>21.395034</v>
       </c>
       <c r="H5">
-        <v>3.65975505298866</v>
+        <v>64.185102</v>
       </c>
       <c r="I5">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="J5">
-        <v>0.005511315319020564</v>
+        <v>0.03113537258663955</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.16368643248756</v>
+        <v>7.370601</v>
       </c>
       <c r="N5">
-        <v>7.16368643248756</v>
+        <v>22.111803</v>
       </c>
       <c r="O5">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="P5">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="Q5">
-        <v>26.21733761932266</v>
+        <v>157.694258995434</v>
       </c>
       <c r="R5">
-        <v>26.21733761932266</v>
+        <v>1419.248330958906</v>
       </c>
       <c r="S5">
-        <v>0.001300516208160171</v>
+        <v>0.007165667118857701</v>
       </c>
       <c r="T5">
-        <v>0.001300516208160171</v>
+        <v>0.007165667118857699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>602.445358100677</v>
+        <v>604.8953246666666</v>
       </c>
       <c r="H6">
-        <v>602.445358100677</v>
+        <v>1814.685974</v>
       </c>
       <c r="I6">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484196</v>
       </c>
       <c r="J6">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.02706955833192</v>
+        <v>7.321725333333333</v>
       </c>
       <c r="N6">
-        <v>6.02706955833192</v>
+        <v>21.965176</v>
       </c>
       <c r="O6">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168947</v>
       </c>
       <c r="P6">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168946</v>
       </c>
       <c r="Q6">
-        <v>3630.980078366963</v>
+        <v>4428.877422626824</v>
       </c>
       <c r="R6">
-        <v>3630.980078366963</v>
+        <v>39859.89680364142</v>
       </c>
       <c r="S6">
-        <v>0.1801154835776542</v>
+        <v>0.2012493132149293</v>
       </c>
       <c r="T6">
-        <v>0.1801154835776542</v>
+        <v>0.2012493132149293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>602.445358100677</v>
+        <v>604.8953246666666</v>
       </c>
       <c r="H7">
-        <v>602.445358100677</v>
+        <v>1814.685974</v>
       </c>
       <c r="I7">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484196</v>
       </c>
       <c r="J7">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7800655642474</v>
+        <v>14.81128766666667</v>
       </c>
       <c r="N7">
-        <v>14.7800655642474</v>
+        <v>44.433863</v>
       </c>
       <c r="O7">
-        <v>0.4868557492550741</v>
+        <v>0.4624794897301531</v>
       </c>
       <c r="P7">
-        <v>0.4868557492550741</v>
+        <v>0.462479489730153</v>
       </c>
       <c r="Q7">
-        <v>8904.18189160451</v>
+        <v>8959.278661859729</v>
       </c>
       <c r="R7">
-        <v>8904.18189160451</v>
+        <v>80633.50795673757</v>
       </c>
       <c r="S7">
-        <v>0.4416937005038705</v>
+        <v>0.4071118944021326</v>
       </c>
       <c r="T7">
-        <v>0.4416937005038705</v>
+        <v>0.4071118944021327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>602.445358100677</v>
+        <v>604.8953246666666</v>
       </c>
       <c r="H8">
-        <v>602.445358100677</v>
+        <v>1814.685974</v>
       </c>
       <c r="I8">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484196</v>
       </c>
       <c r="J8">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.38738123264182</v>
+        <v>2.522212</v>
       </c>
       <c r="N8">
-        <v>2.38738123264182</v>
+        <v>7.566636</v>
       </c>
       <c r="O8">
-        <v>0.07864040072913712</v>
+        <v>0.078755564337357</v>
       </c>
       <c r="P8">
-        <v>0.07864040072913712</v>
+        <v>0.07875556433735698</v>
       </c>
       <c r="Q8">
-        <v>1438.266741621737</v>
+        <v>1525.674246618163</v>
       </c>
       <c r="R8">
-        <v>1438.266741621737</v>
+        <v>13731.06821956346</v>
       </c>
       <c r="S8">
-        <v>0.07134550564578311</v>
+        <v>0.06932702466610602</v>
       </c>
       <c r="T8">
-        <v>0.07134550564578311</v>
+        <v>0.069327024666106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>602.445358100677</v>
+        <v>604.8953246666666</v>
       </c>
       <c r="H9">
-        <v>602.445358100677</v>
+        <v>1814.685974</v>
       </c>
       <c r="I9">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484196</v>
       </c>
       <c r="J9">
-        <v>0.9072373103936743</v>
+        <v>0.8802809712484198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.16368643248756</v>
+        <v>7.370601</v>
       </c>
       <c r="N9">
-        <v>7.16368643248756</v>
+        <v>22.111803</v>
       </c>
       <c r="O9">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="P9">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="Q9">
-        <v>4315.72963814093</v>
+        <v>4458.442084883458</v>
       </c>
       <c r="R9">
-        <v>4315.72963814093</v>
+        <v>40125.97876395112</v>
       </c>
       <c r="S9">
-        <v>0.2140826206663664</v>
+        <v>0.2025927389652518</v>
       </c>
       <c r="T9">
-        <v>0.2140826206663664</v>
+        <v>0.2025927389652518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.286614252580995</v>
+        <v>0.4378016666666666</v>
       </c>
       <c r="H10">
-        <v>0.286614252580995</v>
+        <v>1.313405</v>
       </c>
       <c r="I10">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="J10">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.02706955833192</v>
+        <v>7.321725333333333</v>
       </c>
       <c r="N10">
-        <v>6.02706955833192</v>
+        <v>21.965176</v>
       </c>
       <c r="O10">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168947</v>
       </c>
       <c r="P10">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168946</v>
       </c>
       <c r="Q10">
-        <v>1.727444036714971</v>
+        <v>3.205463553808888</v>
       </c>
       <c r="R10">
-        <v>1.727444036714971</v>
+        <v>28.84917198428</v>
       </c>
       <c r="S10">
-        <v>8.569020245525205E-05</v>
+        <v>0.0001456570767670761</v>
       </c>
       <c r="T10">
-        <v>8.569020245525205E-05</v>
+        <v>0.0001456570767670761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.286614252580995</v>
+        <v>0.4378016666666666</v>
       </c>
       <c r="H11">
-        <v>0.286614252580995</v>
+        <v>1.313405</v>
       </c>
       <c r="I11">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="J11">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.7800655642474</v>
+        <v>14.81128766666667</v>
       </c>
       <c r="N11">
-        <v>14.7800655642474</v>
+        <v>44.433863</v>
       </c>
       <c r="O11">
-        <v>0.4868557492550741</v>
+        <v>0.4624794897301531</v>
       </c>
       <c r="P11">
-        <v>0.4868557492550741</v>
+        <v>0.462479489730153</v>
       </c>
       <c r="Q11">
-        <v>4.236177444794871</v>
+        <v>6.484406425946111</v>
       </c>
       <c r="R11">
-        <v>4.236177444794871</v>
+        <v>58.359657833515</v>
       </c>
       <c r="S11">
-        <v>0.0002101364184110699</v>
+        <v>0.0002946530723928068</v>
       </c>
       <c r="T11">
-        <v>0.0002101364184110699</v>
+        <v>0.0002946530723928067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.286614252580995</v>
+        <v>0.4378016666666666</v>
       </c>
       <c r="H12">
-        <v>0.286614252580995</v>
+        <v>1.313405</v>
       </c>
       <c r="I12">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="J12">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.38738123264182</v>
+        <v>2.522212</v>
       </c>
       <c r="N12">
-        <v>2.38738123264182</v>
+        <v>7.566636</v>
       </c>
       <c r="O12">
-        <v>0.07864040072913712</v>
+        <v>0.078755564337357</v>
       </c>
       <c r="P12">
-        <v>0.07864040072913712</v>
+        <v>0.07875556433735698</v>
       </c>
       <c r="Q12">
-        <v>0.6842574876195298</v>
+        <v>1.104228617286667</v>
       </c>
       <c r="R12">
-        <v>0.6842574876195298</v>
+        <v>9.938057555579999</v>
       </c>
       <c r="S12">
-        <v>3.394272775235166E-05</v>
+        <v>5.017642839376847E-05</v>
       </c>
       <c r="T12">
-        <v>3.394272775235166E-05</v>
+        <v>5.017642839376845E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.286614252580995</v>
+        <v>0.4378016666666666</v>
       </c>
       <c r="H13">
-        <v>0.286614252580995</v>
+        <v>1.313405</v>
       </c>
       <c r="I13">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="J13">
-        <v>0.0004316194657916527</v>
+        <v>0.0006371159779750029</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.16368643248756</v>
+        <v>7.370601</v>
       </c>
       <c r="N13">
-        <v>7.16368643248756</v>
+        <v>22.111803</v>
       </c>
       <c r="O13">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="P13">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="Q13">
-        <v>2.053214632572036</v>
+        <v>3.226861402135</v>
       </c>
       <c r="R13">
-        <v>2.053214632572036</v>
+        <v>29.041752619215</v>
       </c>
       <c r="S13">
-        <v>0.0001018501171729791</v>
+        <v>0.0001466294004213517</v>
       </c>
       <c r="T13">
-        <v>0.0001018501171729791</v>
+        <v>0.0001466294004213516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>57.6521244049845</v>
+        <v>60.43348966666667</v>
       </c>
       <c r="H14">
-        <v>57.6521244049845</v>
+        <v>181.300469</v>
       </c>
       <c r="I14">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="J14">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.02706955833192</v>
+        <v>7.321725333333333</v>
       </c>
       <c r="N14">
-        <v>6.02706955833192</v>
+        <v>21.965176</v>
       </c>
       <c r="O14">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168947</v>
       </c>
       <c r="P14">
-        <v>0.1985318301112388</v>
+        <v>0.2286194065168946</v>
       </c>
       <c r="Q14">
-        <v>347.4733639744468</v>
+        <v>442.4774122741716</v>
       </c>
       <c r="R14">
-        <v>347.4733639744468</v>
+        <v>3982.296710467544</v>
       </c>
       <c r="S14">
-        <v>0.01723648481452411</v>
+        <v>0.02010628582275833</v>
       </c>
       <c r="T14">
-        <v>0.01723648481452411</v>
+        <v>0.02010628582275832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>57.6521244049845</v>
+        <v>60.43348966666667</v>
       </c>
       <c r="H15">
-        <v>57.6521244049845</v>
+        <v>181.300469</v>
       </c>
       <c r="I15">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="J15">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7800655642474</v>
+        <v>14.81128766666667</v>
       </c>
       <c r="N15">
-        <v>14.7800655642474</v>
+        <v>44.433863</v>
       </c>
       <c r="O15">
-        <v>0.4868557492550741</v>
+        <v>0.4624794897301531</v>
       </c>
       <c r="P15">
-        <v>0.4868557492550741</v>
+        <v>0.462479489730153</v>
       </c>
       <c r="Q15">
-        <v>852.1021786238185</v>
+        <v>895.0978001535275</v>
       </c>
       <c r="R15">
-        <v>852.1021786238185</v>
+        <v>8055.880201381747</v>
       </c>
       <c r="S15">
-        <v>0.04226869678376976</v>
+        <v>0.0406734710292003</v>
       </c>
       <c r="T15">
-        <v>0.04226869678376976</v>
+        <v>0.0406734710292003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>57.6521244049845</v>
+        <v>60.43348966666667</v>
       </c>
       <c r="H16">
-        <v>57.6521244049845</v>
+        <v>181.300469</v>
       </c>
       <c r="I16">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="J16">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.38738123264182</v>
+        <v>2.522212</v>
       </c>
       <c r="N16">
-        <v>2.38738123264182</v>
+        <v>7.566636</v>
       </c>
       <c r="O16">
-        <v>0.07864040072913712</v>
+        <v>0.078755564337357</v>
       </c>
       <c r="P16">
-        <v>0.07864040072913712</v>
+        <v>0.07875556433735698</v>
       </c>
       <c r="Q16">
-        <v>137.6375998263914</v>
+        <v>152.4260728391427</v>
       </c>
       <c r="R16">
-        <v>137.6375998263914</v>
+        <v>1371.834655552284</v>
       </c>
       <c r="S16">
-        <v>0.006827540310369252</v>
+        <v>0.006926279403942531</v>
       </c>
       <c r="T16">
-        <v>0.006827540310369252</v>
+        <v>0.006926279403942529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.6521244049845</v>
+        <v>60.43348966666667</v>
       </c>
       <c r="H17">
-        <v>57.6521244049845</v>
+        <v>181.300469</v>
       </c>
       <c r="I17">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="J17">
-        <v>0.08681975482151344</v>
+        <v>0.08794654018696571</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.16368643248756</v>
+        <v>7.370601</v>
       </c>
       <c r="N17">
-        <v>7.16368643248756</v>
+        <v>22.111803</v>
       </c>
       <c r="O17">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="P17">
-        <v>0.2359720199045499</v>
+        <v>0.2301455394155954</v>
       </c>
       <c r="Q17">
-        <v>413.0017414040724</v>
+        <v>445.431139370623</v>
       </c>
       <c r="R17">
-        <v>413.0017414040724</v>
+        <v>4008.880254335606</v>
       </c>
       <c r="S17">
-        <v>0.02048703291285031</v>
+        <v>0.02024050393106457</v>
       </c>
       <c r="T17">
-        <v>0.02048703291285031</v>
+        <v>0.02024050393106456</v>
       </c>
     </row>
   </sheetData>
